--- a/biology/Zoologie/Bianor_angulosus/Bianor_angulosus.xlsx
+++ b/biology/Zoologie/Bianor_angulosus/Bianor_angulosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bianor angulosus est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bianor angulosus est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Inde, au Sri Lanka, au Bhoutan, au Bangladesh, en Birmanie, en Chine, à Taïwan, au Viêt Nam, en Thaïlande, en Malaisie et en Indonésie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Inde, au Sri Lanka, au Bhoutan, au Bangladesh, en Birmanie, en Chine, à Taïwan, au Viêt Nam, en Thaïlande, en Malaisie et en Indonésie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle décrit par Logunov en 2001 mesure 2,53 mm de long sur 2,05 mm et l'abdomen 2,40 mm de long sur 1,58 mm et la carapace de la femelle mesure 2,65 mm de long sur 2,20 mm et l'abdomen 3,45 mm de long sur 2,25 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle décrit par Logunov en 2001 mesure 2,53 mm de long sur 2,05 mm et l'abdomen 2,40 mm de long sur 1,58 mm et la carapace de la femelle mesure 2,65 mm de long sur 2,20 mm et l'abdomen 3,45 mm de long sur 2,25 mm.
 </t>
         </is>
       </c>
@@ -573,12 +589,14 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Ballus angulosus par Karsch en 1879. Elle est placée dans le genre Simaetha par Simon en 1903[3] puis dans le genre Bianor par Żabka en 1988[4].
-Bianor trepidans[5], Bianor hotingchiehi[6] et Bianor simoni[7] ont été placées en synonymie par Logunov en 2001[2].
-Stichius albomaculatus[8] et Bianor leucostictus[9] ont été placées en synonymie par Logunov en 2019[10].
-Rhene haldanei[11] a été placée en synonymie par Caleb, Sanap, Tripathi, Sampathkumar, Dharmara et Packiam en 2022[12].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Ballus angulosus par Karsch en 1879. Elle est placée dans le genre Simaetha par Simon en 1903 puis dans le genre Bianor par Żabka en 1988.
+Bianor trepidans, Bianor hotingchiehi et Bianor simoni ont été placées en synonymie par Logunov en 2001.
+Stichius albomaculatus et Bianor leucostictus ont été placées en synonymie par Logunov en 2019.
+Rhene haldanei a été placée en synonymie par Caleb, Sanap, Tripathi, Sampathkumar, Dharmara et Packiam en 2022.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Karsch, 1879 : « Arachnologische Beitrage. » Zeitschrift für die gesammten Naturwissenschaften, vol. 52, p. 534-562.</t>
         </is>
